--- a/pub/Trash/VirtualOrganizations/OSGasXsedeSp/OSG-XSEDE_project_mappings.xlsx
+++ b/pub/Trash/VirtualOrganizations/OSGasXsedeSp/OSG-XSEDE_project_mappings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="225">
   <si>
     <t>Last_name</t>
   </si>
@@ -679,12 +679,6 @@
     <t>Ramsey Numbers R(C4,Km)</t>
   </si>
   <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
     <t>Various</t>
   </si>
   <si>
@@ -692,6 +686,9 @@
   </si>
   <si>
     <t>Testing &amp; Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff </t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1520,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,19 +3071,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
         <v>221</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>222</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>223</v>
-      </c>
-      <c r="D54" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" t="s">
-        <v>225</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
